--- a/biology/Médecine/Thérapie_par_pression_négative/Thérapie_par_pression_négative.xlsx
+++ b/biology/Médecine/Thérapie_par_pression_négative/Thérapie_par_pression_négative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9rapie_par_pression_n%C3%A9gative</t>
+          <t>Thérapie_par_pression_négative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La thérapie par pression négative (ou traitement des plaies par pression négative) est une technique de cicatrisation des plaies qui consiste à placer une plaie sous une pression négative (c'est-à-dire inférieure à la pression atmosphérique ambiante).
 Cette pression peut être continue ou discontinue. Elle est délivrée par une source de dépression qui est reliée à un pansement occlusif placé dans le lit de la plaie.
-L'objectif de la thérapie par pression négative est d'accélérer la cicatrisation des plaies[1].
-En février 2016, la Haute Autorité de santé a publié un rapport d'évaluation des actes de prise en charge de plaies complexes à l'aide d'un appareil de traitement par pression négative[2].
+L'objectif de la thérapie par pression négative est d'accélérer la cicatrisation des plaies.
+En février 2016, la Haute Autorité de santé a publié un rapport d'évaluation des actes de prise en charge de plaies complexes à l'aide d'un appareil de traitement par pression négative.
 </t>
         </is>
       </c>
